--- a/docs/shrcore/shr-core-Questionnaire-model.xlsx
+++ b/docs/shrcore/shr-core-Questionnaire-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="115">
   <si>
     <t>Path</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>The country, state or other region taking legal responsibility.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
   </si>
   <si>
     <t>shr-core-Questionnaire-model.purposeMarkdown</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2566,13 +2572,11 @@
         <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>36</v>
@@ -2607,7 +2611,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2687,7 +2691,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2704,7 +2708,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2730,10 +2734,10 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2784,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -2801,7 +2805,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2824,13 +2828,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2881,7 +2885,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -2898,7 +2902,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2921,13 +2925,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2978,7 +2982,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -2995,7 +2999,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3018,13 +3022,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3060,7 +3064,7 @@
         <v>36</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>36</v>
@@ -3075,7 +3079,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
@@ -3092,7 +3096,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3118,10 +3122,10 @@
         <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3148,11 +3152,11 @@
         <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>36</v>
@@ -3170,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3187,7 +3191,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3210,13 +3214,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3267,7 +3271,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
